--- a/image test/word/main60en_forgen.xlsx
+++ b/image test/word/main60en_forgen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PH\Documents\GitHub\Dyslexia\image test\word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6A9136-BB03-4AFB-B894-521BC47AAA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FAED3D-4AC9-417A-8647-E68BF6FB1D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7716" yWindow="492" windowWidth="7056" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
+    <workbookView xWindow="9180" yWindow="348" windowWidth="13308" windowHeight="10632" xr2:uid="{EDFBF649-D5F8-4589-81E2-4779C7BE7634}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>zebra</t>
   </si>
   <si>
-    <t>beaver</t>
-  </si>
-  <si>
     <t>owl</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>spoon</t>
+  </si>
+  <si>
+    <t>ladder</t>
   </si>
 </sst>
 </file>
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C9E852-D4D9-4E8E-84A4-5801E2072E8E}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -668,422 +668,425 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2">
-        <v>23</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
+      <c r="A12">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
+      <c r="A13">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
+      <c r="A14">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2">
-        <v>28</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>12</v>
+      <c r="A15">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2">
+      <c r="A24">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="2">
-        <v>52</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2">
-        <v>61</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="2">
-        <v>63</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2">
-        <v>64</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>22</v>
+      <c r="B28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2">
-        <v>89</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>36</v>
+      <c r="A37">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2">
-        <v>93</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>37</v>
+      <c r="A38">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2">
-        <v>94</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>38</v>
+      <c r="A39">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2">
-        <v>95</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>31</v>
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2">
-        <v>96</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>32</v>
+      <c r="A41">
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>43</v>
+      <c r="A43" s="2">
+        <v>61</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44">
-        <v>79</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
+      <c r="A44" s="2">
+        <v>63</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45">
-        <v>18</v>
-      </c>
-      <c r="B45" t="s">
-        <v>45</v>
+      <c r="A45" s="2">
+        <v>64</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46">
-        <v>57</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
+      <c r="A46" s="2">
+        <v>66</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
+      <c r="A47" s="2">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48">
-        <v>17</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
+      <c r="A48" s="2">
+        <v>70</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49">
-        <v>60</v>
-      </c>
-      <c r="B49" t="s">
-        <v>49</v>
+      <c r="A49" s="2">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50">
-        <v>78</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
+      <c r="A50" s="2">
+        <v>75</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54">
-        <v>33</v>
-      </c>
-      <c r="B54" t="s">
-        <v>54</v>
+      <c r="A54" s="2">
+        <v>82</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55">
-        <v>20</v>
-      </c>
-      <c r="B55" t="s">
-        <v>55</v>
+      <c r="A55" s="2">
+        <v>87</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56">
-        <v>76</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
+      <c r="A56" s="2">
+        <v>88</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>57</v>
+      <c r="A57" s="2">
+        <v>89</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s">
-        <v>58</v>
+      <c r="A58" s="2">
+        <v>93</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59">
+      <c r="A59" s="2">
+        <v>94</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B59" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>60</v>
+      <c r="A60" s="2">
+        <v>95</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
+      <c r="A61" s="2">
+        <v>96</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B61">
+    <sortCondition ref="A1:A61"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>